--- a/ig/messagedefinitions/StructureDefinition-medcom-homecareobservation-message-definition.xlsx
+++ b/ig/messagedefinitions/StructureDefinition-medcom-homecareobservation-message-definition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trial-use</t>
+    <t>1.0.1-trial-use</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T11:03:09+00:00</t>
+    <t>2025-09-17T09:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>Allows the message definition to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
+    <t>http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComHomeCareObservationMessageDefinition</t>
   </si>
   <si>
     <t>Definition.url</t>
@@ -3448,7 +3451,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3508,10 +3511,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3519,10 +3522,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3545,19 +3548,19 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3606,7 +3609,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3627,21 +3630,21 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3664,13 +3667,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3721,7 +3724,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3739,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3753,10 +3756,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3785,7 +3788,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3826,19 +3829,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3856,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3870,10 +3873,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3899,16 +3902,16 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3933,13 +3936,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3957,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3975,7 +3978,7 @@
         <v>86</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3989,10 +3992,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4015,26 +4018,26 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>78</v>
@@ -4052,11 +4055,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -4074,7 +4077,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4089,10 +4092,10 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -4106,10 +4109,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4132,13 +4135,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4189,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4207,7 +4210,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4221,10 +4224,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4253,7 +4256,7 @@
         <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>136</v>
@@ -4294,19 +4297,19 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4324,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4338,10 +4341,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4364,19 +4367,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4425,7 +4428,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4440,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4457,10 +4460,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4483,13 +4486,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4540,7 +4543,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4558,7 +4561,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4572,10 +4575,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4604,7 +4607,7 @@
         <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>136</v>
@@ -4645,19 +4648,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4675,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4689,10 +4692,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4718,16 +4721,16 @@
         <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4737,7 +4740,7 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>78</v>
@@ -4776,7 +4779,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4791,10 +4794,10 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4808,10 +4811,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4834,16 +4837,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4893,7 +4896,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4908,10 +4911,10 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4925,10 +4928,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4954,14 +4957,14 @@
         <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5010,7 +5013,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5025,10 +5028,10 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -5042,10 +5045,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5068,17 +5071,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5127,7 +5130,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5142,10 +5145,10 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -5159,10 +5162,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5185,19 +5188,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5246,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5261,10 +5264,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5278,10 +5281,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5304,19 +5307,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5365,7 +5368,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5380,10 +5383,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5397,10 +5400,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5426,16 +5429,16 @@
         <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5448,7 +5451,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5484,7 +5487,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5499,10 +5502,10 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5516,10 +5519,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5542,16 +5545,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5565,7 +5568,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -5601,7 +5604,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5616,10 +5619,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5633,10 +5636,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5659,13 +5662,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5716,7 +5719,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5731,10 +5734,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5748,10 +5751,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5774,13 +5777,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5831,7 +5834,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5849,7 +5852,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5895,7 +5898,7 @@
         <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>136</v>
@@ -5936,19 +5939,19 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5966,7 +5969,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5980,10 +5983,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6006,16 +6009,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6065,7 +6068,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6074,16 +6077,16 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -6097,10 +6100,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6123,23 +6126,23 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>78</v>
@@ -6184,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6193,16 +6196,16 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6242,16 +6245,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6301,7 +6304,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6316,10 +6319,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6333,10 +6336,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6359,16 +6362,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6418,7 +6421,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6439,10 +6442,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6450,10 +6453,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6476,19 +6479,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6537,7 +6540,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6546,10 +6549,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6595,16 +6598,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6654,7 +6657,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6675,7 +6678,7 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6686,10 +6689,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6712,13 +6715,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6769,7 +6772,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6801,10 +6804,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6827,13 +6830,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6884,7 +6887,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6919,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7001,7 +7004,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7033,10 +7036,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7059,13 +7062,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7116,7 +7119,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7148,10 +7151,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7177,13 +7180,13 @@
         <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7209,13 +7212,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7233,7 +7236,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7254,10 +7257,10 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7291,19 +7294,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7352,7 +7355,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7373,10 +7376,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7384,14 +7387,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7410,16 +7413,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7469,7 +7472,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7490,10 +7493,10 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7501,10 +7504,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7527,19 +7530,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7591,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7609,10 +7612,10 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7620,10 +7623,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7646,16 +7649,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7693,17 +7696,17 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7724,7 +7727,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7735,13 +7738,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
@@ -7763,16 +7766,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7822,7 +7825,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7843,7 +7846,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7854,10 +7857,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7880,13 +7883,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7937,7 +7940,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7955,7 +7958,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7969,10 +7972,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8001,7 +8004,7 @@
         <v>134</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>136</v>
@@ -8042,19 +8045,19 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8072,7 +8075,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -8086,10 +8089,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8112,16 +8115,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8132,7 +8135,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>78</v>
@@ -8171,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8203,10 +8206,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8229,13 +8232,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8286,7 +8289,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8318,10 +8321,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8344,13 +8347,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8401,7 +8404,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8422,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8433,10 +8436,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8465,7 +8468,7 @@
         <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>136</v>
@@ -8506,19 +8509,19 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8536,7 +8539,7 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8550,10 +8553,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8579,10 +8582,10 @@
         <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8591,7 +8594,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>78</v>
@@ -8609,13 +8612,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8633,7 +8636,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8642,16 +8645,16 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8665,10 +8668,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8691,19 +8694,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8713,7 +8716,7 @@
         <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8752,7 +8755,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8767,10 +8770,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8784,10 +8787,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8813,23 +8816,23 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>78</v>
@@ -8847,13 +8850,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8871,7 +8874,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8886,10 +8889,10 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8903,10 +8906,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8929,16 +8932,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8988,7 +8991,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9003,10 +9006,10 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -9020,10 +9023,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9046,13 +9049,13 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9103,7 +9106,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9121,7 +9124,7 @@
         <v>86</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -9135,10 +9138,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9161,16 +9164,16 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9220,7 +9223,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9241,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9252,10 +9255,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9278,19 +9281,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9339,7 +9342,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9360,7 +9363,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9371,10 +9374,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9397,13 +9400,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9454,7 +9457,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9472,7 +9475,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9486,10 +9489,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9518,7 +9521,7 @@
         <v>134</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>136</v>
@@ -9559,19 +9562,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9589,7 +9592,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9603,10 +9606,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9629,13 +9632,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9644,7 +9647,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>78</v>
@@ -9662,11 +9665,11 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9684,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>88</v>
@@ -9716,10 +9719,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9742,13 +9745,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9799,7 +9802,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9817,7 +9820,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9831,10 +9834,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9863,7 +9866,7 @@
         <v>134</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>136</v>
@@ -9904,19 +9907,19 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9934,7 +9937,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9948,10 +9951,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9977,16 +9980,16 @@
         <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9996,7 +9999,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -10035,7 +10038,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10050,10 +10053,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -10067,10 +10070,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10093,16 +10096,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10152,7 +10155,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10167,10 +10170,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -10184,10 +10187,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10213,14 +10216,14 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10269,7 +10272,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10284,10 +10287,10 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10301,10 +10304,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10327,17 +10330,17 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10386,7 +10389,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10401,10 +10404,10 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10418,10 +10421,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10444,19 +10447,19 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10505,7 +10508,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10520,10 +10523,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10537,10 +10540,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10563,13 +10566,13 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10596,13 +10599,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10620,7 +10623,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10652,10 +10655,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10678,16 +10681,16 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10698,7 +10701,7 @@
         <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>78</v>
@@ -10713,13 +10716,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10737,7 +10740,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10758,7 +10761,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10769,10 +10772,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10795,13 +10798,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10852,7 +10855,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10870,7 +10873,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10884,10 +10887,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10916,7 +10919,7 @@
         <v>134</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>136</v>
@@ -10957,19 +10960,19 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10987,7 +10990,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -11001,10 +11004,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11027,19 +11030,19 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11088,7 +11091,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11103,10 +11106,10 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -11120,10 +11123,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11146,13 +11149,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11203,7 +11206,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11221,7 +11224,7 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -11235,10 +11238,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11267,7 +11270,7 @@
         <v>134</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>136</v>
@@ -11308,19 +11311,19 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11338,7 +11341,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11352,10 +11355,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11381,16 +11384,16 @@
         <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11439,7 +11442,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11454,10 +11457,10 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11471,10 +11474,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11497,16 +11500,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11556,7 +11559,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11571,10 +11574,10 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11588,10 +11591,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11617,14 +11620,14 @@
         <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11673,7 +11676,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11688,10 +11691,10 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11705,10 +11708,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11731,17 +11734,17 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11790,7 +11793,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11805,10 +11808,10 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11822,10 +11825,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11848,19 +11851,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11909,7 +11912,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11924,10 +11927,10 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11941,10 +11944,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11967,19 +11970,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12028,7 +12031,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12043,10 +12046,10 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -12060,10 +12063,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12086,16 +12089,16 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12145,7 +12148,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12166,25 +12169,25 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12203,17 +12206,17 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12262,7 +12265,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12283,21 +12286,21 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12320,13 +12323,13 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12377,7 +12380,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12409,10 +12412,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12435,16 +12438,16 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12494,7 +12497,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12526,10 +12529,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12552,13 +12555,13 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12585,13 +12588,13 @@
         <v>78</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>78</v>
@@ -12609,7 +12612,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>88</v>
@@ -12641,10 +12644,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12667,13 +12670,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12724,7 +12727,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12742,7 +12745,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12756,10 +12759,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12788,7 +12791,7 @@
         <v>134</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>136</v>
@@ -12829,19 +12832,19 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12859,7 +12862,7 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12873,10 +12876,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12902,16 +12905,16 @@
         <v>102</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12921,7 +12924,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12960,7 +12963,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12975,10 +12978,10 @@
         <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12992,10 +12995,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13018,16 +13021,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13077,7 +13080,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13092,10 +13095,10 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -13109,10 +13112,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13138,14 +13141,14 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13155,7 +13158,7 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>78</v>
@@ -13194,7 +13197,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13209,10 +13212,10 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
@@ -13226,10 +13229,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13252,17 +13255,17 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13311,7 +13314,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13326,10 +13329,10 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -13343,10 +13346,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13369,19 +13372,19 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13430,7 +13433,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13445,10 +13448,10 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13462,10 +13465,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13491,10 +13494,10 @@
         <v>108</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13503,7 +13506,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>78</v>
@@ -13521,13 +13524,13 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13545,7 +13548,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13577,10 +13580,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13603,13 +13606,13 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13660,7 +13663,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13672,7 +13675,7 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13692,10 +13695,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13718,13 +13721,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13775,7 +13778,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13793,7 +13796,7 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -13807,10 +13810,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13839,7 +13842,7 @@
         <v>134</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>136</v>
@@ -13892,7 +13895,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13910,7 +13913,7 @@
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13924,14 +13927,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13953,10 +13956,10 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>136</v>
@@ -14011,7 +14014,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14043,10 +14046,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14072,13 +14075,13 @@
         <v>108</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14104,13 +14107,13 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -14128,7 +14131,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>88</v>
@@ -14160,10 +14163,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14186,19 +14189,19 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14247,7 +14250,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14279,10 +14282,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14305,13 +14308,13 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14362,7 +14365,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>88</v>
@@ -14394,10 +14397,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14420,13 +14423,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14477,7 +14480,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14486,7 +14489,7 @@
         <v>88</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>100</v>
@@ -14509,10 +14512,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14538,13 +14541,13 @@
         <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14555,10 +14558,10 @@
         <v>78</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>78</v>
@@ -14570,13 +14573,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14594,7 +14597,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14609,7 +14612,7 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>78</v>
@@ -14626,10 +14629,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14652,16 +14655,16 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14711,7 +14714,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14743,10 +14746,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14769,13 +14772,13 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14826,7 +14829,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14844,7 +14847,7 @@
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>78</v>
@@ -14858,10 +14861,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14890,7 +14893,7 @@
         <v>134</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>136</v>
@@ -14943,7 +14946,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14961,7 +14964,7 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14975,14 +14978,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15004,10 +15007,10 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>136</v>
@@ -15062,7 +15065,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15094,10 +15097,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15120,13 +15123,13 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15177,7 +15180,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>88</v>
@@ -15209,10 +15212,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15235,13 +15238,13 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15292,7 +15295,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15324,10 +15327,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15350,13 +15353,13 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15407,7 +15410,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>

--- a/ig/messagedefinitions/StructureDefinition-medcom-homecareobservation-message-definition.xlsx
+++ b/ig/messagedefinitions/StructureDefinition-medcom-homecareobservation-message-definition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1-trial-use</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:43:38+00:00</t>
+    <t>2025-09-24T11:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
